--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/10/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/10/seed2/result_data_KNN.xlsx
@@ -482,7 +482,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.386</v>
+        <v>5.545</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>10.25</v>
+        <v>9.658000000000001</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>7.696</v>
+        <v>7.891999999999999</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -856,7 +856,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>6.084</v>
+        <v>6.396</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.964</v>
+        <v>-13.055</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.982</v>
+        <v>-13.002</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.514</v>
+        <v>-12.758</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-10.792</v>
+        <v>-11.1</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.154</v>
+        <v>-11.152</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.31</v>
+        <v>-11.273</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1332,7 +1332,7 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.542</v>
+        <v>6.139999999999999</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.48</v>
+        <v>-13.368</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-13.772</v>
+        <v>-13.222</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1400,10 +1400,10 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.473999999999999</v>
+        <v>5.575</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.724</v>
+        <v>-13.385</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.746</v>
+        <v>4.678</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.915999999999999</v>
+        <v>5.667</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.99</v>
+        <v>-12.575</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>6.064</v>
+        <v>5.771000000000001</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.186</v>
+        <v>5.702</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1947,7 +1947,7 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-11.016</v>
+        <v>-10.863</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-13.818</v>
+        <v>-12.91</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>6.046</v>
+        <v>5.659000000000001</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
